--- a/Mongodb/mongodb.xlsx
+++ b/Mongodb/mongodb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Queries</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Explanation</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t xml:space="preserve">show dbs </t>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">show all the database</t>
-  </si>
-  <si>
-    <t>rew</t>
   </si>
   <si>
     <t xml:space="preserve">use blog  </t>
@@ -226,7 +220,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain equals to in query </t>
+    <t xml:space="preserve">Used to determain equals to in query - $eq</t>
   </si>
   <si>
     <t>db.students.findOne({age:{$ne:20}})</t>
@@ -243,7 +237,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain not equals in query</t>
+    <t xml:space="preserve">Used to determain not equals in query - $ne</t>
   </si>
   <si>
     <t xml:space="preserve"> db.students.find({age:{$gt:20}})</t>
@@ -270,7 +264,7 @@
   },</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain greater than in query</t>
+    <t xml:space="preserve">Used to determain greater than in query - $gt</t>
   </si>
   <si>
     <t xml:space="preserve"> db.students.find({age:{$lt:20}})</t>
@@ -298,7 +292,7 @@
   },</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain less than in query</t>
+    <t xml:space="preserve">Used to determain less than in query - $lt</t>
   </si>
   <si>
     <t>db.students.find({age:{$gte:20}})</t>
@@ -325,7 +319,7 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain greater than or equal to query</t>
+    <t xml:space="preserve">Used to determain greater than or equal to query - $gte</t>
   </si>
   <si>
     <t>db.students.find({age:{$lte:18}})</t>
@@ -351,7 +345,7 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to determain less than or equal to  in query</t>
+    <t xml:space="preserve">Used to determain less than or equal to  in query - $lte</t>
   </si>
   <si>
     <t>db.students.find({course:{$in:['Physics','Math','Arts']}})</t>
@@ -387,7 +381,7 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">Value with matched with in array</t>
+    <t xml:space="preserve">Value with matched with in array - $in</t>
   </si>
   <si>
     <t xml:space="preserve">Query Operators - Logical operator</t>
@@ -551,7 +545,532 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">Value with not matched with in array</t>
+    <t xml:space="preserve">Value with not matched with in array - $nin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({department:"Data Analyst"},{$inc:{salary:2300}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$inc - increment by given values for all fields through update trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({},{$rename:{salary:"Monthly Salary"}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    email: 'vasi950@gmail.com',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$rename - change the column name in records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({department:"Data Analyst"},{$set:{salary:400000}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+  {
+    _id: ObjectId('6909c27428b1ee20bae893b7'),
+    empId: 'E859403',
+    name: 'Vasi Raja M',
+    email: 'vasi14122000@gmail.com',
+    department: 'Data Analyst',
+    salary: 400000,
+    __v: 0
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$set - Works along with update trigger to set or update the existing values </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({},{$unset:{email:""}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees.find()
+[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$unset - Remove the overall field in particular record</t>
+  </si>
+  <si>
+    <t>db.employees.updateMany({},{$currentDate:{existingTime:true}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 3,
+  modifiedCount: 3,
+  upsertedCount: 0
+}
+[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z')
+  },
+  {
+    _id: ObjectId('6909c1b228b1ee20bae893af'),
+    empId: 'E043203',
+    name: 'Vasi Raja M',
+    email: 'vasi343@gmail.com',
+    department: 'SEO Analyst',
+    salary: 342300,
+    __v: 0,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z')
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$currentDate - Update the current time and date for the existing records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({name:"Vaskrithi"},{$addToSet:{skills:"Nodejs"}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees.find({name:"Vaskrithi"})
+[
+  {
+    _id: ObjectId('698c13731818010329628ca0'),
+    empId: 'E923440',
+    name: 'Vaskrithi',
+    email: 'vask@gmail.com',
+    department: 'Data Modelling',
+    salary: 400000,
+    skills: [ 'Python', 'Java', 'Nodejs' ]
+  }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$addToSet - Used to add another item into field array type of data like push operator and helps maintian unique values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateMany({},{$set:{Materials:["Java Fundamentals","Data Algorithms"]}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 5,
+  modifiedCount: 5,
+  upsertedCount: 0
+}
+[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  },
+  {
+    _id: ObjectId('6909c1b228b1ee20bae893af'),
+    empId: 'E043203',
+    name: 'Vasi Raja M',
+    email: 'vasi343@gmail.com',
+    department: 'SEO Analyst',
+    salary: 342300,
+    __v: 0,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This query used to initialise array into field with or without values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({name:"Vaskrithi"},{$pop:{skills:1}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees.findOne({name:"Vaskrithi"})
+{
+  _id: ObjectId('698c13731818010329628ca0'),
+  empId: 'E923440',
+  name: 'Vaskrithi',
+  email: 'vask@gmail.com',
+  department: 'Data Modelling',
+  salary: 400000,
+  skills: [ 'Python', 'Java' ],
+  Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$pop - This query used to remove the last value with in the array field based value
+$pop : 1 remove the last one
+$pop : -1 remove the first one</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({name:"Vaskrithi"},{$pop:{skills:-1}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees.findOne({name:"Vaskrithi"})
+{
+  _id: ObjectId('698c13731818010329628ca0'),
+  empId: 'E923440',
+  name: 'Vaskrithi',
+  email: 'vask@gmail.com',
+  department: 'Data Modelling',
+  salary: 400000,
+  skills: [ 'Java' ],
+  Materials: [ 'Java Fundamentals', 'Data Algorithms' ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$pop : -1 remove the first one in the array field</t>
+  </si>
+  <si>
+    <t>db.employees.updateOne({name:"Vaskrithi"},{$addToSet:{skills:{$each:["Java","Python","C","C++","Nodejs"]}}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+{
+  _id: ObjectId('698c13731818010329628ca0'),
+  empId: 'E923440',
+  name: 'Vaskrithi',
+  email: 'vask@gmail.com',
+  department: 'Data Modelling',
+  salary: 400000,
+  skills: [ 'Java', 'Python', 'C', 'C++', 'Nodejs' ],
+  Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$each - used to add multiple array items through this </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({name:"Vaskrithi"},{$push:{skills:{$each:["Java","Python","C","C++","Nodejs"]}}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    _id: ObjectId('698c13731818010329628ca0'),
+    empId: 'E923440',
+    name: 'Vaskrithi',
+    email: 'vask@gmail.com',
+    department: 'Data Modelling',
+    salary: 400000,
+    skills: [
+      'Java',   'Python',
+      'C',      'C++',
+      'Nodejs', 'Java',
+      'Python', 'C',
+      'C++',    'Nodejs'
+    ],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$push - same as addtoset to help input multiple values into array but allow duplicates </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.updateOne({name:"Vaskrithi"},{$pull:{Materials:"Java Fundamentals"}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  acknowledged: true,
+  insertedId: null,
+  matchedCount: 1,
+  modifiedCount: 1,
+  upsertedCount: 0
+}
+Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees.findOne({name:"Vaskrithi"})
+{
+  _id: ObjectId('698c13731818010329628ca0'),
+  empId: 'E923440',
+  name: 'Vaskrithi',
+  email: 'vask@gmail.com',
+  department: 'Data Modelling',
+  salary: 400000,
+  skills: [
+    'Java',   'Python',
+    'C',      'C++',
+    'Nodejs', 'Java',
+    'Python', 'C',
+    'C++',    'Nodejs'
+  ],
+  Materials: [ 'Data Algorithms' ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$pull - Remove the elements in array which matched the condition</t>
+  </si>
+  <si>
+    <t>Aggregations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.aggregate([{ $group: { _id: "$department" } } ]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  { _id: 'Developer' },
+  { _id: 'Data Analyst' },
+  { _id: 'SEO Analyst' },
+  { _id: 'Data Modelling' }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$group - using this operator we can group multiple data into one </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.aggregate([{$limit:2}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  },
+  {
+    _id: ObjectId('6909c1b228b1ee20bae893af'),
+    empId: 'E043203',
+    name: 'Vasi Raja M',
+    email: 'vasi343@gmail.com',
+    department: 'SEO Analyst',
+    salary: 342300,
+    __v: 0,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$limit - return the first matched documents based on that limit parameter</t>
+  </si>
+  <si>
+    <t>db.employees.aggregate([{$project:{department:1,name:1,_id:0}}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  { name: 'vasi', department: 'Developer' },
+  { name: 'Vasi Raja M', department: 'SEO Analyst' },
+  { name: 'Vasi Raja M', department: 'Data Analyst' },
+  { name: 'Vaskrithi', department: 'Data Modelling' },
+  { name: 'Vathi', department: 'Data Modelling' },
+  { name: 'Vathir', department: 'Data Modelling' }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$project - return documents along with allowed fields which we determine through boolean values 0 and 1.</t>
+  </si>
+  <si>
+    <t>db.employees.aggregate([{$sort:{salary:-1}},{$limit:6},{$project:{_id:0,name:1,salary:1}}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  { name: 'Vaskrithi', salary: 400000 },
+  { name: 'Vathi', salary: 400000 },
+  { name: 'Vasi Raja M', salary: 400000 },
+  { name: 'Vathir', salary: 400000 },
+  { name: 'Vasi Raja M', salary: 342300 },
+  { name: 'vasi' }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sort - used to sorting the records based on the given fields -1 is descending order and 1 is ascending order in aggregate pipeline
+Note: And given data for last record there is no salary provided which means that column names might be renamed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.aggregate([{$match:{salary:{$lt:400000}}}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    _id: ObjectId('6909c1b228b1ee20bae893af'),
+    empId: 'E043203',
+    name: 'Vasi Raja M',
+    email: 'vasi343@gmail.com',
+    department: 'SEO Analyst',
+    salary: 342300,
+    __v: 0,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ]
+  }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$match - This works like as find query inside aggregate pipeline and return the document which field condition is true </t>
+  </si>
+  <si>
+    <t>db.employees.aggregate([{$addFields:{checked:true}}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ],
+    checked: true
+  },
+  {
+    _id: ObjectId('6909c1b228b1ee20bae893af'),
+    empId: 'E043203',
+    name: 'Vasi Raja M',
+    email: 'vasi343@gmail.com',
+    department: 'SEO Analyst',
+    salary: 342300,
+    __v: 0,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ],
+    checked: true
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$addFields - used to add aditional field in records </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.employees.aggregate([{$match:{salary:400000}},{$count:"Salary_Assigned_Total"}]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ { Salary_Assigned_Total: 4 } ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$count - used to count the result which matching the condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.departments.aggregate([{$lookup:{from:"employees",localField:"department",foreignField:"department",as:"department-wholedetails"}},{$project:{_id:0,name:1,department:1,"department-wholedetails.name":1,"department-wholedetails.department":1}}])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    department: 'Developer',
+    'department-wholedetails': [ { name: 'vasi', department: 'Developer' } ]
+  },
+  {
+    department: 'SEO Analyst',
+    'department-wholedetails': [ { name: 'Vasi Raja M', department: 'SEO Analyst' } ]
+  },
+  {
+    department: 'Data Modelling',
+    'department-wholedetails': [
+      { name: 'Vaskrithi', department: 'Data Modelling' },
+      { name: 'Vathi', department: 'Data Modelling' },
+      { name: 'Vathir', department: 'Data Modelling' }
+    ]
+  }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$lookup - used to merge two records based on both common record fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db.employees.aggregate([{$lookup:{from:"departments",localField:"department",foreignField:"department",as:"deptInfo"}},{$out:"employees_with_departments"}])
+db.employees_with_departments.find()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas atlas-ns1rwy-shard-0 [primary] test&gt; db.employees_with_departments.find().pretty()
+[
+  {
+    _id: ObjectId('6907034c200075bd86ce8ac8'),
+    empId: 'E030',
+    name: 'vasi',
+    department: 'Developer',
+    __v: 0,
+    'Monthly Salary': 80000,
+    existingTime: ISODate('2026-02-11T05:27:13.926Z'),
+    skills: [],
+    Materials: [ 'Java Fundamentals', 'Data Algorithms' ],
+    deptInfo: [
+      {
+        _id: ObjectId('698c34a29ca27c1190628ca3'),
+        department: 'Developer',
+        manager: 'Ravi',
+        location: 'Chennai'
+      }
+    ]
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$out - This will permanently store the lookup result to given variable</t>
   </si>
 </sst>
 </file>
@@ -598,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,7 +1129,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,6 +1139,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1152,354 +1674,597 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" ht="129" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" ht="93.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" ht="70.5" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="99.75">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="99.75">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="90.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="90.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" ht="111.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" ht="111.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" ht="148.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" ht="92.25" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" ht="122.25" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" ht="94.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" ht="72" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" ht="67.5" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="67.5" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" ht="77.25" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="77.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" ht="67.5" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" ht="150" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="67.5" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="150" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" ht="128.25">
       <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" ht="270.75">
       <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" ht="168" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" ht="405" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" ht="256.5">
       <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" ht="399">
+      <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" ht="399">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" ht="71.25" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" ht="71.25" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" ht="205.5" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" ht="229.5" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" ht="236.25" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" ht="236.25" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" ht="168.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="29" ht="139.5" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" ht="139.5" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="30" ht="42.75" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" ht="85.5" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" ht="162.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" ht="85.5" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="242.25">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" ht="228">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" ht="242.25">
+      <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="384.75">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" ht="285">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" ht="409.5" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" ht="270.75">
+      <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" ht="256.5">
+      <c r="A40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="242.25">
+      <c r="A41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="228">
+      <c r="A42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" ht="356.25">
+      <c r="A43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" ht="85.5">
+      <c r="A45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" ht="356.25">
+      <c r="A46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" ht="114">
+      <c r="A47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" ht="114">
+      <c r="A48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" ht="199.5">
+      <c r="A49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" ht="370.5">
+      <c r="A50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" ht="42.75">
+      <c r="A51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" ht="285">
+      <c r="A52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" ht="313.5">
+      <c r="A53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" ht="51" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" ht="54" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
